--- a/biology/Histoire de la zoologie et de la botanique/Vigie-Nature/Vigie-Nature.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vigie-Nature/Vigie-Nature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vigie-Nature[1] est un programme de sciences participatives créé par le Muséum national d'histoire naturelle en partenariat avec l'Office français de la biodiversité pour permettre à différents publics de contribuer à la recherche en histoire naturelle par la collecte de données sur la faune et la flore, à travers divers protocoles d'observation (observatoires) s'inscrivant dans le contexte général des sciences participatives.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vigie-Nature est un programme de sciences participatives créé par le Muséum national d'histoire naturelle en partenariat avec l'Office français de la biodiversité pour permettre à différents publics de contribuer à la recherche en histoire naturelle par la collecte de données sur la faune et la flore, à travers divers protocoles d'observation (observatoires) s'inscrivant dans le contexte général des sciences participatives.
 </t>
         </is>
       </c>
@@ -511,18 +523,20 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les objectifs de ce programme sont : 
-fournir du matériel scientifique sur la biodiversité ordinaire pour la recherche en écologie[2],
-fournir du matériel scientifique sur les processus participatifs pour la recherche en sciences humaines et sociales[2] ,
-surveiller les variations des espèces et communautés d'espèces dans le temps et dans l'espace afin de produire des indicateurs relatifs à l'état de santé de la biodiversité ordinaire[3], pour l'appui aux politiques publiques de conservation de la nature,
-permettre aux participants de découvrir par eux-mêmes les grands principes de l'écologie et de la démarche scientifique[4],[5].
+fournir du matériel scientifique sur la biodiversité ordinaire pour la recherche en écologie,
+fournir du matériel scientifique sur les processus participatifs pour la recherche en sciences humaines et sociales ,
+surveiller les variations des espèces et communautés d'espèces dans le temps et dans l'espace afin de produire des indicateurs relatifs à l'état de santé de la biodiversité ordinaire, pour l'appui aux politiques publiques de conservation de la nature,
+permettre aux participants de découvrir par eux-mêmes les grands principes de l'écologie et de la démarche scientifique,.
 Une spécificité réside dans le fait que la collecte de données est cadrée par des protocoles de manière à les standardiser et ainsi à rendre les données collectées comparables dans le temps et l'espace. L'objectif principal des protocoles est de recueillir des jeux de données dans lesquels il est possible de séparer la part de variation due à la collecte elle-même de celle due aux processus biologiques.
 Ce programme s'appuie sur plusieurs partenariats entre des associations environnementales (LPO, Opie...) qui animent les réseaux d’observateurs volontaires et des chercheurs et ingénieurs écologues du Muséum national d’Histoire naturelle et de l'Office français de la biodiversité ou d'autres établissements de scientifiques qui assurent l’analyse des données récoltées, la vulgarisation et la restitution auprès des participants.
 Vigie-Nature a débuté en 1989 avec la mise en place du Suivi temporel des oiseaux communs (STOC), portant sur les populations d'oiseaux nicheuses d'espèces diurnes. Depuis, le suivi d'autres groupes d’espèces a été initié : oiseaux hivernants, papillons, chauves-souris, escargots, insectes pollinisateurs, libellules, flore vasculaire et plantes spontanée des milieux urbains. Au total, une vingtaine d’observatoires de la biodiversité sont proposés au grand public, ainsi qu’aux naturalistes, scolaires ou professionnels du secteur agricole, de la gestion d'espaces verts ou encore d'espaces protégés.
 Sur l'ensemble du territoire français, plus de 15000 observateurs participent ainsi chaque année au suivi scientifique de la biodiversité ordinaire.
-L'Observatoire national de biodiversité présente plusieurs indicateurs issus de Vigie-Nature : l'évolution temporelle des populations d'oiseaux communs spécialistes et l'évolution des populations de chauves-souris[6].
+L'Observatoire national de biodiversité présente plusieurs indicateurs issus de Vigie-Nature : l'évolution temporelle des populations d'oiseaux communs spécialistes et l'évolution des populations de chauves-souris.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Liste des observatoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vigie-Nature propose une vingtaine d’observatoires s’adressant à différents publics en fonction de leurs compétences naturalistes ou de leurs connaissances :
 Dix observatoires pour le grand public :
